--- a/config_1.11/activity_exchange_server.xlsx
+++ b/config_1.11/activity_exchange_server.xlsx
@@ -3171,9 +3171,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5026,7 +5026,7 @@
         <v>81</v>
       </c>
       <c r="D58" s="35">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="E58" s="35">
         <v>1643039999</v>
